--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLHMoneyTypeCompare.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLHMoneyTypeCompare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F509B1C-C960-4A6D-AEB9-F40560B2B918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0506F4-4FF3-440F-ABFB-AB3330AC3982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -34,9 +34,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>BÁO CÁO CHI TIẾT - DOANH SỐ CHI TRẢ THEO THỊ TRƯỜNG - LOẠI HÌNH CHI TRẢ</t>
-  </si>
   <si>
     <t>Đơn vị:</t>
   </si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>GBP</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - HỒ SƠ CHI TRẢ THEO THỊ TRƯỜNG - LOẠI TIỀN</t>
   </si>
 </sst>
 </file>
@@ -232,13 +232,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,20 +247,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:V102"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,24 +607,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
+      <c r="A1" s="14" t="s">
+        <v>10</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
@@ -2229,55 +2229,55 @@
     <row r="82" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="T100" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+      <c r="B101" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="C101" s="16"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="19"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="16" t="s">
+      <c r="I101" s="16"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="22"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="18" t="s">
+      <c r="L101" s="19"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="23"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="16" t="s">
+      <c r="O101" s="16"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O101" s="22"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="18" t="s">
-        <v>10</v>
+      <c r="R101" s="19"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="15" t="s">
+        <v>1</v>
       </c>
-      <c r="R101" s="23"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="U101" s="22"/>
+      <c r="U101" s="16"/>
       <c r="V101" s="17"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A102" s="15"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
